--- a/Project design.xlsx
+++ b/Project design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Staff</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>ID đơn hàng - PK và FK đến bảng Bill</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Ghi chú cho đơn hàng</t>
+  </si>
+  <si>
+    <t>STID*</t>
+  </si>
+  <si>
+    <t>ID của nhân viên thực hiện đơn hàng - FK đến bảng Staff</t>
   </si>
 </sst>
 </file>
@@ -609,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,9 +827,21 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project design.xlsx
+++ b/Project design.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
